--- a/rec_selectivity_by_state_cdf_star.xlsx
+++ b/rec_selectivity_by_state_cdf_star.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="13">
   <si>
     <t>l_in_bin</t>
   </si>
@@ -99,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E170"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -852,2194 +852,2143 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>527.58685302734375</v>
       </c>
       <c r="D45" s="2">
         <v>104251</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>6.2235133713173241e-10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>2959.8168411254883</v>
       </c>
       <c r="D46" s="2">
         <v>104251</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>3.6328011709940711e-09</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>12210.595458984375</v>
       </c>
       <c r="D47" s="2">
         <v>104251</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>2.0247204801648877e-08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>28721.9375</v>
       </c>
       <c r="D48" s="2">
         <v>104251</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>3.5403314058157775e-08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>44263.21435546875</v>
       </c>
       <c r="D49" s="2">
         <v>104251</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>4.0612096796621699e-08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>56473.427734375</v>
       </c>
       <c r="D50" s="2">
         <v>104251</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>2.9835245385356757e-08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>48811.1416015625</v>
       </c>
       <c r="D51" s="2">
         <v>104251</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>5.2730971589198816e-08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>34151.67431640625</v>
       </c>
       <c r="D52" s="2">
         <v>104251</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>4.0486352048674235e-08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>27164.79345703125</v>
       </c>
       <c r="D53" s="2">
         <v>104251</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>5.6460411457237569e-08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>262.39601125874259</v>
+        <v>13263.683227539063</v>
       </c>
       <c r="D54" s="2">
         <v>104251</v>
       </c>
       <c r="E54" s="1">
-        <v>2.8346799907374987e-10</v>
+        <v>2.8792241479891345e-08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>279544.41906570626</v>
+        <v>5944.68115234375</v>
       </c>
       <c r="D55" s="2">
         <v>104251</v>
       </c>
       <c r="E55" s="1">
-        <v>3.3139616562039009e-07</v>
+        <v>1.5747259496379229e-08</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>3410.8270568847656</v>
       </c>
       <c r="D56" s="2">
         <v>104251</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>1.687701711716727e-08</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>1176.4487457275391</v>
       </c>
       <c r="D57" s="2">
         <v>104251</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>4.1612207013486113e-09</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>475.41480255126953</v>
       </c>
       <c r="D58" s="2">
         <v>104251</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>2.367590123952823e-09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>124.69926071166992</v>
       </c>
       <c r="D59" s="2">
         <v>104251</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>6.0275046065427773e-10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>24842.766967773438</v>
       </c>
       <c r="D60" s="2">
-        <v>104251</v>
+        <v>544681</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>3.6731083952190602e-08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>58347.78076171875</v>
       </c>
       <c r="D61" s="2">
-        <v>104251</v>
+        <v>544681</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>7.0284551512145299e-09</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>98337.642578125</v>
       </c>
       <c r="D62" s="2">
-        <v>104251</v>
+        <v>544681</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>9.8411394588993062e-09</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="1">
-        <v>24842.766967773438</v>
+        <v>150693.7236328125</v>
       </c>
       <c r="D63" s="2">
         <v>544681</v>
       </c>
       <c r="E63" s="1">
-        <v>3.6731083952190602e-08</v>
+        <v>1.3316557634368564e-08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="1">
-        <v>58347.78076171875</v>
+        <v>143056.23828125</v>
       </c>
       <c r="D64" s="2">
         <v>544681</v>
       </c>
       <c r="E64" s="1">
-        <v>7.0284551512145299e-09</v>
+        <v>3.2298807184361067e-08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>98337.642578125</v>
+        <v>147410.82421875</v>
       </c>
       <c r="D65" s="2">
         <v>544681</v>
       </c>
       <c r="E65" s="1">
-        <v>9.8411394588993062e-09</v>
+        <v>3.4629337619662692e-08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="1">
-        <v>150693.7236328125</v>
+        <v>115451.75390625</v>
       </c>
       <c r="D66" s="2">
         <v>544681</v>
       </c>
       <c r="E66" s="1">
-        <v>1.3316557634368564e-08</v>
+        <v>3.6640951606159433e-08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="1">
-        <v>143056.23828125</v>
+        <v>95773.078125</v>
       </c>
       <c r="D67" s="2">
         <v>544681</v>
       </c>
       <c r="E67" s="1">
-        <v>3.2298807184361067e-08</v>
+        <v>2.2594964121935845e-08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="1">
-        <v>147410.82421875</v>
+        <v>61684.49609375</v>
       </c>
       <c r="D68" s="2">
         <v>544681</v>
       </c>
       <c r="E68" s="1">
-        <v>3.4629337619662692e-08</v>
+        <v>1.0832445163089233e-08</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="1">
-        <v>115451.75390625</v>
+        <v>45403.4345703125</v>
       </c>
       <c r="D69" s="2">
         <v>544681</v>
       </c>
       <c r="E69" s="1">
-        <v>3.6640951606159433e-08</v>
+        <v>4.591051538938018e-09</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="1">
-        <v>95773.078125</v>
+        <v>31212.2822265625</v>
       </c>
       <c r="D70" s="2">
         <v>544681</v>
       </c>
       <c r="E70" s="1">
-        <v>2.2594964121935845e-08</v>
+        <v>6.4537228894323562e-09</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="1">
-        <v>61684.49609375</v>
+        <v>16770.8037109375</v>
       </c>
       <c r="D71" s="2">
         <v>544681</v>
       </c>
       <c r="E71" s="1">
-        <v>1.0832445163089233e-08</v>
+        <v>3.8052965223300816e-09</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="1">
-        <v>45403.4345703125</v>
+        <v>11252.638671875</v>
       </c>
       <c r="D72" s="2">
         <v>544681</v>
       </c>
       <c r="E72" s="1">
-        <v>4.591051538938018e-09</v>
+        <v>4.4764116857720637e-09</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="1">
-        <v>31212.2822265625</v>
+        <v>7226.418701171875</v>
       </c>
       <c r="D73" s="2">
         <v>544681</v>
       </c>
       <c r="E73" s="1">
-        <v>6.4537228894323562e-09</v>
+        <v>3.0024269737083387e-09</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="1">
-        <v>16770.8037109375</v>
+        <v>4441.8097534179688</v>
       </c>
       <c r="D74" s="2">
         <v>544681</v>
       </c>
       <c r="E74" s="1">
-        <v>3.8052965223300816e-09</v>
+        <v>2.2520310061224791e-09</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" s="1">
-        <v>11252.638671875</v>
+        <v>2089.5038452148438</v>
       </c>
       <c r="D75" s="2">
         <v>544681</v>
       </c>
       <c r="E75" s="1">
-        <v>4.4764116857720637e-09</v>
+        <v>1.9788695126976563e-09</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="1">
-        <v>7226.418701171875</v>
+        <v>1705.6051940917969</v>
       </c>
       <c r="D76" s="2">
         <v>544681</v>
       </c>
       <c r="E76" s="1">
-        <v>3.0024269737083387e-09</v>
+        <v>1.1546870126721842e-09</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="1">
-        <v>4441.8097534179688</v>
+        <v>537.35263061523438</v>
       </c>
       <c r="D77" s="2">
         <v>544681</v>
       </c>
       <c r="E77" s="1">
-        <v>2.2520310061224791e-09</v>
+        <v>5.1219012364711602e-10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1">
-        <v>2089.5038452148438</v>
+        <v>128.08294773101807</v>
       </c>
       <c r="D78" s="2">
-        <v>544681</v>
+        <v>4579196</v>
       </c>
       <c r="E78" s="1">
-        <v>1.9788695126976563e-09</v>
+        <v>2.2525687912167136e-11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
-        <v>1705.6051940917969</v>
+        <v>3376.0078964233398</v>
       </c>
       <c r="D79" s="2">
-        <v>544681</v>
+        <v>4579196</v>
       </c>
       <c r="E79" s="1">
-        <v>1.1546870126721842e-09</v>
+        <v>4.8371768396338055e-11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
-        <v>537.35263061523438</v>
+        <v>36303.345092773438</v>
       </c>
       <c r="D80" s="2">
-        <v>544681</v>
+        <v>4579196</v>
       </c>
       <c r="E80" s="1">
-        <v>5.1219012364711602e-10</v>
+        <v>4.3214076761444176e-10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1">
-        <v>128.08294773101807</v>
+        <v>141009.3935546875</v>
       </c>
       <c r="D81" s="2">
         <v>4579196</v>
       </c>
       <c r="E81" s="1">
-        <v>2.2525687912167136e-11</v>
+        <v>1.4821693872235642e-09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1">
-        <v>3376.0078964233398</v>
+        <v>582766.73046875</v>
       </c>
       <c r="D82" s="2">
         <v>4579196</v>
       </c>
       <c r="E82" s="1">
-        <v>4.8371768396338055e-11</v>
+        <v>1.5650471141270828e-08</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1">
-        <v>36303.345092773438</v>
+        <v>974696.03125</v>
       </c>
       <c r="D83" s="2">
         <v>4579196</v>
       </c>
       <c r="E83" s="1">
-        <v>4.3214076761444176e-10</v>
+        <v>2.7235602217956512e-08</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1">
-        <v>141009.3935546875</v>
+        <v>1623652.1875</v>
       </c>
       <c r="D84" s="2">
         <v>4579196</v>
       </c>
       <c r="E84" s="1">
-        <v>1.4821693872235642e-09</v>
+        <v>6.1293185638078285e-08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1">
-        <v>582766.73046875</v>
+        <v>2223059.75</v>
       </c>
       <c r="D85" s="2">
         <v>4579196</v>
       </c>
       <c r="E85" s="1">
-        <v>1.5650471141270828e-08</v>
+        <v>6.2383875842897396e-08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1">
-        <v>974696.03125</v>
+        <v>2001360.875</v>
       </c>
       <c r="D86" s="2">
         <v>4579196</v>
       </c>
       <c r="E86" s="1">
-        <v>2.7235602217956512e-08</v>
+        <v>4.180506252282612e-08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1">
-        <v>1623652.1875</v>
+        <v>1939935.8125</v>
       </c>
       <c r="D87" s="2">
         <v>4579196</v>
       </c>
       <c r="E87" s="1">
-        <v>6.1293185638078285e-08</v>
+        <v>2.3332637155704106e-08</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1">
-        <v>2223059.75</v>
+        <v>1657384.53125</v>
       </c>
       <c r="D88" s="2">
         <v>4579196</v>
       </c>
       <c r="E88" s="1">
-        <v>6.2383875842897396e-08</v>
+        <v>4.076252579920947e-08</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1">
-        <v>2001360.875</v>
+        <v>1248050.0625</v>
       </c>
       <c r="D89" s="2">
         <v>4579196</v>
       </c>
       <c r="E89" s="1">
-        <v>4.180506252282612e-08</v>
+        <v>3.368369050349429e-08</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1">
-        <v>1939935.8125</v>
+        <v>657439.328125</v>
       </c>
       <c r="D90" s="2">
         <v>4579196</v>
       </c>
       <c r="E90" s="1">
-        <v>2.3332637155704106e-08</v>
+        <v>3.1108875475638342e-08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1">
-        <v>1657384.53125</v>
+        <v>449505.390625</v>
       </c>
       <c r="D91" s="2">
         <v>4579196</v>
       </c>
       <c r="E91" s="1">
-        <v>4.076252579920947e-08</v>
+        <v>2.2214535988496209e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1">
-        <v>1248050.0625</v>
+        <v>286173.265625</v>
       </c>
       <c r="D92" s="2">
         <v>4579196</v>
       </c>
       <c r="E92" s="1">
-        <v>3.368369050349429e-08</v>
+        <v>1.7258239282114118e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1">
-        <v>657439.328125</v>
+        <v>169643.609375</v>
       </c>
       <c r="D93" s="2">
         <v>4579196</v>
       </c>
       <c r="E93" s="1">
-        <v>3.1108875475638342e-08</v>
+        <v>1.9110165894176134e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1">
-        <v>449505.390625</v>
+        <v>93639.60546875</v>
       </c>
       <c r="D94" s="2">
         <v>4579196</v>
       </c>
       <c r="E94" s="1">
-        <v>2.2214535988496209e-08</v>
+        <v>7.5404686938895793e-09</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1">
-        <v>286173.265625</v>
+        <v>48127.6337890625</v>
       </c>
       <c r="D95" s="2">
         <v>4579196</v>
       </c>
       <c r="E95" s="1">
-        <v>1.7258239282114118e-08</v>
+        <v>5.4565649776350256e-09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1">
-        <v>169643.609375</v>
+        <v>17244.01513671875</v>
       </c>
       <c r="D96" s="2">
         <v>4579196</v>
       </c>
       <c r="E96" s="1">
-        <v>1.9110165894176134e-08</v>
+        <v>1.8975929716447126e-09</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1">
-        <v>93639.60546875</v>
+        <v>13544.3037109375</v>
       </c>
       <c r="D97" s="2">
         <v>4579196</v>
       </c>
       <c r="E97" s="1">
-        <v>7.5404686938895793e-09</v>
+        <v>3.2664293492246088e-09</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1">
-        <v>48127.6337890625</v>
+        <v>4375.3660888671875</v>
       </c>
       <c r="D98" s="2">
         <v>4579196</v>
       </c>
       <c r="E98" s="1">
-        <v>5.4565649776350256e-09</v>
+        <v>1.0453656829056968e-09</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="1">
-        <v>17244.01513671875</v>
+        <v>2391.0310668945313</v>
       </c>
       <c r="D99" s="2">
         <v>4579196</v>
       </c>
       <c r="E99" s="1">
-        <v>1.8975929716447126e-09</v>
+        <v>1.24396892786649e-09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1">
-        <v>13544.3037109375</v>
+        <v>1265.7240600585938</v>
       </c>
       <c r="D100" s="2">
         <v>4579196</v>
       </c>
       <c r="E100" s="1">
-        <v>3.2664293492246088e-09</v>
+        <v>6.503810823232925e-10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="1">
-        <v>4375.3660888671875</v>
+        <v>649.04641723632813</v>
       </c>
       <c r="D101" s="2">
         <v>4579196</v>
       </c>
       <c r="E101" s="1">
-        <v>1.0453656829056968e-09</v>
+        <v>9.7377284014044108e-10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="1">
-        <v>2391.0310668945313</v>
+        <v>414.32054901123047</v>
       </c>
       <c r="D102" s="2">
         <v>4579196</v>
       </c>
       <c r="E102" s="1">
-        <v>1.24396892786649e-09</v>
+        <v>1.5835589506352221e-09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="1">
-        <v>1265.7240600585938</v>
+        <v>63.210346221923828</v>
       </c>
       <c r="D103" s="2">
         <v>4579196</v>
       </c>
       <c r="E103" s="1">
-        <v>6.503810823232925e-10</v>
+        <v>4.8318776757483306e-10</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" s="1">
-        <v>649.04641723632813</v>
+        <v>11.414425134658813</v>
       </c>
       <c r="D104" s="2">
-        <v>4579196</v>
+        <v>3474730</v>
       </c>
       <c r="E104" s="1">
-        <v>9.7377284014044108e-10</v>
+        <v>2.6455072941328206e-12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C105" s="1">
-        <v>414.32054901123047</v>
+        <v>509.45052623748779</v>
       </c>
       <c r="D105" s="2">
-        <v>4579196</v>
+        <v>3474730</v>
       </c>
       <c r="E105" s="1">
-        <v>1.5835589506352221e-09</v>
+        <v>9.6196375518053934e-12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" s="1">
-        <v>63.210346221923828</v>
+        <v>8238.0937042236328</v>
       </c>
       <c r="D106" s="2">
-        <v>4579196</v>
+        <v>3474730</v>
       </c>
       <c r="E106" s="1">
-        <v>4.8318776757483306e-10</v>
+        <v>1.2923302705747375e-10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="1">
-        <v>11.414425134658813</v>
+        <v>58257.571044921875</v>
       </c>
       <c r="D107" s="2">
         <v>3474730</v>
       </c>
       <c r="E107" s="1">
-        <v>2.6455072941328206e-12</v>
+        <v>8.0699408266937667e-10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="1">
-        <v>509.45052623748779</v>
+        <v>212855.970703125</v>
       </c>
       <c r="D108" s="2">
         <v>3474730</v>
       </c>
       <c r="E108" s="1">
-        <v>9.6196375518053934e-12</v>
+        <v>7.5333241866815115e-09</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="1">
-        <v>8238.0937042236328</v>
+        <v>603113.9609375</v>
       </c>
       <c r="D109" s="2">
         <v>3474730</v>
       </c>
       <c r="E109" s="1">
-        <v>1.2923302705747375e-10</v>
+        <v>2.2209324157529409e-08</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="1">
-        <v>58257.571044921875</v>
+        <v>992549.1875</v>
       </c>
       <c r="D110" s="2">
         <v>3474730</v>
       </c>
       <c r="E110" s="1">
-        <v>8.0699408266937667e-10</v>
+        <v>4.9378673594446809e-08</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="1">
-        <v>212855.970703125</v>
+        <v>1474160.625</v>
       </c>
       <c r="D111" s="2">
         <v>3474730</v>
       </c>
       <c r="E111" s="1">
-        <v>7.5333241866815115e-09</v>
+        <v>5.4517279579613387e-08</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="1">
-        <v>603113.9609375</v>
+        <v>1761015.90625</v>
       </c>
       <c r="D112" s="2">
         <v>3474730</v>
       </c>
       <c r="E112" s="1">
-        <v>2.2209324157529409e-08</v>
+        <v>4.8476906044925272e-08</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="1">
-        <v>992549.1875</v>
+        <v>1376649.25</v>
       </c>
       <c r="D113" s="2">
         <v>3474730</v>
       </c>
       <c r="E113" s="1">
-        <v>4.9378673594446809e-08</v>
+        <v>2.1820662610139152e-08</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="1">
-        <v>1474160.625</v>
+        <v>1158572.3125</v>
       </c>
       <c r="D114" s="2">
         <v>3474730</v>
       </c>
       <c r="E114" s="1">
-        <v>5.4517279579613387e-08</v>
+        <v>3.7551657783296832e-08</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="1">
-        <v>1761015.90625</v>
+        <v>666059.015625</v>
       </c>
       <c r="D115" s="2">
         <v>3474730</v>
       </c>
       <c r="E115" s="1">
-        <v>4.8476906044925272e-08</v>
+        <v>2.3690189365765946e-08</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="1">
-        <v>1376649.25</v>
+        <v>611270.2421875</v>
       </c>
       <c r="D116" s="2">
         <v>3474730</v>
       </c>
       <c r="E116" s="1">
-        <v>2.1820662610139152e-08</v>
+        <v>3.811799587083442e-08</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="1">
-        <v>1158572.3125</v>
+        <v>282228.5703125</v>
       </c>
       <c r="D117" s="2">
         <v>3474730</v>
       </c>
       <c r="E117" s="1">
-        <v>3.7551657783296832e-08</v>
+        <v>1.8381099309294768e-08</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="1">
-        <v>666059.015625</v>
+        <v>171143.9296875</v>
       </c>
       <c r="D118" s="2">
         <v>3474730</v>
       </c>
       <c r="E118" s="1">
-        <v>2.3690189365765946e-08</v>
+        <v>1.3601821891029431e-08</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="1">
-        <v>611270.2421875</v>
+        <v>116358.853515625</v>
       </c>
       <c r="D119" s="2">
         <v>3474730</v>
       </c>
       <c r="E119" s="1">
-        <v>3.811799587083442e-08</v>
+        <v>1.7274066621553175e-08</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="1">
-        <v>282228.5703125</v>
+        <v>29112.587890625</v>
       </c>
       <c r="D120" s="2">
         <v>3474730</v>
       </c>
       <c r="E120" s="1">
-        <v>1.8381099309294768e-08</v>
+        <v>3.0894966585037764e-09</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="1">
-        <v>171143.9296875</v>
+        <v>23709.2978515625</v>
       </c>
       <c r="D121" s="2">
         <v>3474730</v>
       </c>
       <c r="E121" s="1">
-        <v>1.3601821891029431e-08</v>
+        <v>3.5425147260070844e-09</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="1">
-        <v>116358.853515625</v>
+        <v>10467.888427734375</v>
       </c>
       <c r="D122" s="2">
         <v>3474730</v>
       </c>
       <c r="E122" s="1">
-        <v>1.7274066621553175e-08</v>
+        <v>1.5180705581485654e-09</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="1">
-        <v>29112.587890625</v>
+        <v>3264.3828125</v>
       </c>
       <c r="D123" s="2">
         <v>3474730</v>
       </c>
       <c r="E123" s="1">
-        <v>3.0894966585037764e-09</v>
+        <v>1.0374945347280118e-09</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="1">
-        <v>23709.2978515625</v>
+        <v>2246.5617065429688</v>
       </c>
       <c r="D124" s="2">
         <v>3474730</v>
       </c>
       <c r="E124" s="1">
-        <v>3.5425147260070844e-09</v>
+        <v>7.0735972634849986e-10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="1">
-        <v>10467.888427734375</v>
+        <v>623.74301147460938</v>
       </c>
       <c r="D125" s="2">
         <v>3474730</v>
       </c>
       <c r="E125" s="1">
-        <v>1.5180705581485654e-09</v>
+        <v>4.2765954666457162e-10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="1">
-        <v>3264.3828125</v>
+        <v>302.40702056884766</v>
       </c>
       <c r="D126" s="2">
         <v>3474730</v>
       </c>
       <c r="E126" s="1">
-        <v>1.0374945347280118e-09</v>
+        <v>2.0478063689211012e-10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="1">
-        <v>2246.5617065429688</v>
+        <v>141.51712036132813</v>
       </c>
       <c r="D127" s="2">
         <v>3474730</v>
       </c>
       <c r="E127" s="1">
-        <v>7.0735972634849986e-10</v>
+        <v>2.7980731620580457e-10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" s="1">
-        <v>623.74301147460938</v>
+        <v>4.7405140995979309</v>
       </c>
       <c r="D128" s="2">
-        <v>3474730</v>
+        <v>472523</v>
       </c>
       <c r="E128" s="1">
-        <v>4.2765954666457162e-10</v>
+        <v>8.0793887205499182e-12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" s="1">
-        <v>302.40702056884766</v>
+        <v>121.82443308830261</v>
       </c>
       <c r="D129" s="2">
-        <v>3474730</v>
+        <v>472523</v>
       </c>
       <c r="E129" s="1">
-        <v>2.0478063689211012e-10</v>
+        <v>1.6915670253414561e-11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" s="1">
-        <v>141.51712036132813</v>
+        <v>1366.9491577148438</v>
       </c>
       <c r="D130" s="2">
-        <v>3474730</v>
+        <v>472523</v>
       </c>
       <c r="E130" s="1">
-        <v>2.7980731620580457e-10</v>
+        <v>1.576874880671042e-10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="1">
-        <v>4.7405140995979309</v>
+        <v>7696.6793823242188</v>
       </c>
       <c r="D131" s="2">
         <v>472523</v>
       </c>
       <c r="E131" s="1">
-        <v>8.0793887205499182e-12</v>
+        <v>7.8400613778839556e-10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="1">
-        <v>121.82443308830261</v>
+        <v>24820.76708984375</v>
       </c>
       <c r="D132" s="2">
         <v>472523</v>
       </c>
       <c r="E132" s="1">
-        <v>1.6915670253414561e-11</v>
+        <v>6.4597265314603192e-09</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="1">
-        <v>1366.9491577148438</v>
+        <v>66692.1435546875</v>
       </c>
       <c r="D133" s="2">
         <v>472523</v>
       </c>
       <c r="E133" s="1">
-        <v>1.576874880671042e-10</v>
+        <v>1.8059624906641147e-08</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="1">
-        <v>7696.6793823242188</v>
+        <v>110479.970703125</v>
       </c>
       <c r="D134" s="2">
         <v>472523</v>
       </c>
       <c r="E134" s="1">
-        <v>7.8400613778839556e-10</v>
+        <v>4.0417461377728614e-08</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="1">
-        <v>24820.76708984375</v>
+        <v>173175.322265625</v>
       </c>
       <c r="D135" s="2">
         <v>472523</v>
       </c>
       <c r="E135" s="1">
-        <v>6.4597265314603192e-09</v>
+        <v>4.7094857791307732e-08</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="1">
-        <v>66692.1435546875</v>
+        <v>179509.25390625</v>
       </c>
       <c r="D136" s="2">
         <v>472523</v>
       </c>
       <c r="E136" s="1">
-        <v>1.8059624906641147e-08</v>
+        <v>3.6337628017690804e-08</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="1">
-        <v>110479.970703125</v>
+        <v>200764.7421875</v>
       </c>
       <c r="D137" s="2">
         <v>472523</v>
       </c>
       <c r="E137" s="1">
-        <v>4.0417461377728614e-08</v>
+        <v>2.3400772874992981e-08</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="1">
-        <v>173175.322265625</v>
+        <v>200964.9921875</v>
       </c>
       <c r="D138" s="2">
         <v>472523</v>
       </c>
       <c r="E138" s="1">
-        <v>4.7094857791307732e-08</v>
+        <v>4.7898783606115103e-08</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="1">
-        <v>179509.25390625</v>
+        <v>180046.94140625</v>
       </c>
       <c r="D139" s="2">
         <v>472523</v>
       </c>
       <c r="E139" s="1">
-        <v>3.6337628017690804e-08</v>
+        <v>4.7091191390791209e-08</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="1">
-        <v>200764.7421875</v>
+        <v>112072.29296875</v>
       </c>
       <c r="D140" s="2">
         <v>472523</v>
       </c>
       <c r="E140" s="1">
-        <v>2.3400772874992981e-08</v>
+        <v>5.1391722877269785e-08</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="1">
-        <v>200964.9921875</v>
+        <v>113748.2578125</v>
       </c>
       <c r="D141" s="2">
         <v>472523</v>
       </c>
       <c r="E141" s="1">
-        <v>4.7898783606115103e-08</v>
+        <v>5.4477023780918898e-08</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="1">
-        <v>180046.94140625</v>
+        <v>59591.228515625</v>
       </c>
       <c r="D142" s="2">
         <v>472523</v>
       </c>
       <c r="E142" s="1">
-        <v>4.7091191390791209e-08</v>
+        <v>3.4826996397896437e-08</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="1">
-        <v>112072.29296875</v>
+        <v>40952.0048828125</v>
       </c>
       <c r="D143" s="2">
         <v>472523</v>
       </c>
       <c r="E143" s="1">
-        <v>5.1391722877269785e-08</v>
+        <v>4.4706268909067148e-08</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="1">
-        <v>113748.2578125</v>
+        <v>26433.92236328125</v>
       </c>
       <c r="D144" s="2">
         <v>472523</v>
       </c>
       <c r="E144" s="1">
-        <v>5.4477023780918898e-08</v>
+        <v>2.0628451835591477e-08</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="1">
-        <v>59591.228515625</v>
+        <v>11607.7607421875</v>
       </c>
       <c r="D145" s="2">
         <v>472523</v>
       </c>
       <c r="E145" s="1">
-        <v>3.4826996397896437e-08</v>
+        <v>1.2753798017683948e-08</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="1">
-        <v>40952.0048828125</v>
+        <v>11087.813720703125</v>
       </c>
       <c r="D146" s="2">
         <v>472523</v>
       </c>
       <c r="E146" s="1">
-        <v>4.4706268909067148e-08</v>
+        <v>1.182433972957142e-08</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="1">
-        <v>26433.92236328125</v>
+        <v>4450.8363037109375</v>
       </c>
       <c r="D147" s="2">
         <v>472523</v>
       </c>
       <c r="E147" s="1">
-        <v>2.0628451835591477e-08</v>
+        <v>1.0402183114877062e-08</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="1">
-        <v>11607.7607421875</v>
+        <v>3907.9924926757813</v>
       </c>
       <c r="D148" s="2">
         <v>472523</v>
       </c>
       <c r="E148" s="1">
-        <v>1.2753798017683948e-08</v>
+        <v>9.0484419956737838e-09</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="1">
-        <v>11087.813720703125</v>
+        <v>1433.317626953125</v>
       </c>
       <c r="D149" s="2">
         <v>472523</v>
       </c>
       <c r="E149" s="1">
-        <v>1.182433972957142e-08</v>
+        <v>7.2265833317430861e-09</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="1">
-        <v>4450.8363037109375</v>
+        <v>867.5225830078125</v>
       </c>
       <c r="D150" s="2">
         <v>472523</v>
       </c>
       <c r="E150" s="1">
-        <v>1.0402183114877062e-08</v>
+        <v>4.3199221977374691e-09</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="1">
-        <v>3907.9924926757813</v>
+        <v>510.61344909667969</v>
       </c>
       <c r="D151" s="2">
         <v>472523</v>
       </c>
       <c r="E151" s="1">
-        <v>9.0484419956737838e-09</v>
+        <v>7.4240422698323982e-09</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="1">
-        <v>1433.317626953125</v>
+        <v>292.26495361328125</v>
       </c>
       <c r="D152" s="2">
         <v>472523</v>
       </c>
       <c r="E152" s="1">
-        <v>7.2265833317430861e-09</v>
+        <v>1.0825321083984818e-08</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" s="1">
-        <v>867.5225830078125</v>
+        <v>46594.809814453125</v>
       </c>
       <c r="D153" s="2">
-        <v>472523</v>
+        <v>785624</v>
       </c>
       <c r="E153" s="1">
-        <v>4.3199221977374691e-09</v>
+        <v>4.776379114446172e-08</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" s="1">
-        <v>510.61344909667969</v>
+        <v>90980.55859375</v>
       </c>
       <c r="D154" s="2">
-        <v>472523</v>
+        <v>785624</v>
       </c>
       <c r="E154" s="1">
-        <v>7.4240422698323982e-09</v>
+        <v>7.5982153902032223e-09</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" s="1">
-        <v>292.26495361328125</v>
+        <v>141756.0546875</v>
       </c>
       <c r="D155" s="2">
-        <v>472523</v>
+        <v>785624</v>
       </c>
       <c r="E155" s="1">
-        <v>1.0825321083984818e-08</v>
+        <v>9.8354604460837436e-09</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
         <v>9</v>
       </c>
       <c r="C156" s="1">
-        <v>46594.809814453125</v>
+        <v>208707.732421875</v>
       </c>
       <c r="D156" s="2">
         <v>785624</v>
       </c>
       <c r="E156" s="1">
-        <v>4.776379114446172e-08</v>
+        <v>1.2786828484934176e-08</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
       </c>
       <c r="C157" s="1">
-        <v>90980.55859375</v>
+        <v>196110.634765625</v>
       </c>
       <c r="D157" s="2">
         <v>785624</v>
       </c>
       <c r="E157" s="1">
-        <v>7.5982153902032223e-09</v>
+        <v>3.0697872688278949e-08</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
         <v>9</v>
       </c>
       <c r="C158" s="1">
-        <v>141756.0546875</v>
+        <v>204416.82421875</v>
       </c>
       <c r="D158" s="2">
         <v>785624</v>
       </c>
       <c r="E158" s="1">
-        <v>9.8354604460837436e-09</v>
+        <v>3.3293460433014843e-08</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
         <v>9</v>
       </c>
       <c r="C159" s="1">
-        <v>208707.732421875</v>
+        <v>164561.52734375</v>
       </c>
       <c r="D159" s="2">
         <v>785624</v>
       </c>
       <c r="E159" s="1">
-        <v>1.2786828484934176e-08</v>
+        <v>3.6209456766300718e-08</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
         <v>9</v>
       </c>
       <c r="C160" s="1">
-        <v>196110.634765625</v>
+        <v>142096.8828125</v>
       </c>
       <c r="D160" s="2">
         <v>785624</v>
       </c>
       <c r="E160" s="1">
-        <v>3.0697872688278949e-08</v>
+        <v>2.3242360924768946e-08</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
         <v>9</v>
       </c>
       <c r="C161" s="1">
-        <v>204416.82421875</v>
+        <v>96144.07421875</v>
       </c>
       <c r="D161" s="2">
         <v>785624</v>
       </c>
       <c r="E161" s="1">
-        <v>3.3293460433014843e-08</v>
+        <v>1.1705783009574589e-08</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B162" t="s">
         <v>9</v>
       </c>
       <c r="C162" s="1">
-        <v>164561.52734375</v>
+        <v>74765.7529296875</v>
       </c>
       <c r="D162" s="2">
         <v>785624</v>
       </c>
       <c r="E162" s="1">
-        <v>3.6209456766300718e-08</v>
+        <v>5.2414765860930856e-09</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B163" t="s">
         <v>9</v>
       </c>
       <c r="C163" s="1">
-        <v>142096.8828125</v>
+        <v>54832.095703125</v>
       </c>
       <c r="D163" s="2">
         <v>785624</v>
       </c>
       <c r="E163" s="1">
-        <v>2.3242360924768946e-08</v>
+        <v>7.8604447395491661e-09</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B164" t="s">
         <v>9</v>
       </c>
       <c r="C164" s="1">
-        <v>96144.07421875</v>
+        <v>31516.81494140625</v>
       </c>
       <c r="D164" s="2">
         <v>785624</v>
       </c>
       <c r="E164" s="1">
-        <v>1.1705783009574589e-08</v>
+        <v>4.9579762517737436e-09</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B165" t="s">
         <v>9</v>
       </c>
       <c r="C165" s="1">
-        <v>74765.7529296875</v>
+        <v>22589.57666015625</v>
       </c>
       <c r="D165" s="2">
         <v>785624</v>
       </c>
       <c r="E165" s="1">
-        <v>5.2414765860930856e-09</v>
+        <v>6.2303322501122693e-09</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B166" t="s">
         <v>9</v>
       </c>
       <c r="C166" s="1">
-        <v>54832.095703125</v>
+        <v>15594.027099609375</v>
       </c>
       <c r="D166" s="2">
         <v>785624</v>
       </c>
       <c r="E166" s="1">
-        <v>7.8604447395491661e-09</v>
+        <v>4.4919521435815568e-09</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
       </c>
       <c r="C167" s="1">
-        <v>31516.81494140625</v>
+        <v>10367.9482421875</v>
       </c>
       <c r="D167" s="2">
         <v>785624</v>
       </c>
       <c r="E167" s="1">
-        <v>4.9579762517737436e-09</v>
+        <v>3.6444729456519553e-09</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
         <v>9</v>
       </c>
       <c r="C168" s="1">
-        <v>22589.57666015625</v>
+        <v>5258.7724609375</v>
       </c>
       <c r="D168" s="2">
         <v>785624</v>
       </c>
       <c r="E168" s="1">
-        <v>6.2303322501122693e-09</v>
+        <v>3.452914620893921e-09</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
         <v>9</v>
       </c>
       <c r="C169" s="1">
-        <v>15594.027099609375</v>
+        <v>4636.8016967773438</v>
       </c>
       <c r="D169" s="2">
         <v>785624</v>
       </c>
       <c r="E169" s="1">
-        <v>4.4919521435815568e-09</v>
+        <v>2.1763650881467811e-09</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B170" t="s">
         <v>9</v>
       </c>
       <c r="C170" s="1">
-        <v>10367.9482421875</v>
+        <v>1573.7646484375</v>
       </c>
       <c r="D170" s="2">
         <v>785624</v>
       </c>
       <c r="E170" s="1">
-        <v>3.6444729456519553e-09</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>21</v>
-      </c>
-      <c r="B171" t="s">
-        <v>9</v>
-      </c>
-      <c r="C171" s="1">
-        <v>5258.7724609375</v>
-      </c>
-      <c r="D171" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E171" s="1">
-        <v>3.452914620893921e-09</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>22</v>
-      </c>
-      <c r="B172" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" s="1">
-        <v>4636.8016967773438</v>
-      </c>
-      <c r="D172" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E172" s="1">
-        <v>2.1763650881467811e-09</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>23</v>
-      </c>
-      <c r="B173" t="s">
-        <v>9</v>
-      </c>
-      <c r="C173" s="1">
-        <v>1573.7646484375</v>
-      </c>
-      <c r="D173" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E173" s="1">
         <v>1.0400137417931887e-09</v>
       </c>
     </row>
